--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_9.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,583 +488,604 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_71</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(68.82, 84.54)]</t>
+          <t>[['C:min', 'G:7/D', 'C:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(19.78, 25.82)]</t>
+          <t>[('0:00:37.360000', '0:00:44.660000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:00.360000', '0:00:07.140000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_242</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.07480106100795755</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A:maj6']]</t>
-        </is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_3</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1187888198757764</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:maj/D', 'A:min7/C']]</t>
+          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(4.511043, 10.664331)]</t>
+          <t>[['G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(72.26, 75.56)]</t>
+          <t>[('0:00:50.160000', '0:00:52.820000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
+          <t>[('0:00:01.014823', '0:00:06.126439')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_28</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(14.2, 18.8)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(36.64, 38.52)]</t>
+          <t>[('0:00:15.300000', '0:00:19.720000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:07.560000', '0:00:20.920000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(36.64, 38.52)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(13.66, 17.9)]</t>
+          <t>[('0:00:09.200000', '0:00:26.600000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:20.560000', '0:00:26.400000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>isophonics_152</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3576923076923077</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['A/3', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(55.4, 65.22)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(19.78, 25.82)]</t>
+          <t>[('0:00:04.250000', '0:00:09.179000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.05499181669394435</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_136</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['C:maj', 'F:7', 'A#:maj', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(3.988594, 7.754783)]</t>
+          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(18.26, 24.82)]</t>
+          <t>[('0:00:02.020000', '0:00:15.900000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:14.120000', '0:01:26.540000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_192</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_37</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(8.18, 14.18)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(18.64, 28.9)]</t>
+          <t>[('0:00:17.320000', '0:01:02.460000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:16.140000', '0:00:59.100000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>isophonics_162</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_107</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3666666666666667</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['A', 'A', 'D', 'A'], ['A', 'D', 'A', 'A']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(67.76, 84.78)]</t>
+          <t>[['E', 'E', 'A', 'E'], ['E', 'A', 'E', 'E']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(16.84, 21.54)]</t>
+          <t>[('0:00:34.290634', '0:00:43.926916'), ('0:00:28.450816', '0:00:40.095623')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:02:02.976598', '0:02:14.098957'), ('0:00:15.027029', '0:00:22.457415')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1230769230769231</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(42.94, 51.08)]</t>
+          <t>[['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(8.2, 12.66)]</t>
+          <t>[('0:00:37.360000', '0:00:44.660000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>[('0:00:43.180000', '0:00:45.100000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'B:min/F#', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_115</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_43</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(3.32, 6.3), (0.56, 4.26)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(79.42, 86.02), (27.36, 34.92)]</t>
+          <t>[('0:00:00.380000', '0:00:06.260000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:41.320000', '0:00:48.940000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(1.44, 6.84)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(42.36, 50.36)]</t>
+          <t>[('0:01:16.740000', '0:01:23.980000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:01:20.920000', '0:01:29.040000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_22</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_14</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.08472222222222223</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['B', 'B/7', 'B/6', 'B/5']]</t>
-        </is>
+          <t>schubert-winterreise_168</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_15</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.1846153846153846</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A', 'A/7', 'A/b7', 'A/6']]</t>
+          <t>[['F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(0.440395, 3.280385)]</t>
+          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(84.787426, 87.427993)]</t>
+          <t>[('0:00:23.040000', '0:00:32.800000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
+          <t>[('0:00:44.200000', '0:00:54.160000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_0</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A#:min', 'D#:min/A#', 'A#:min'], ['A#:min/F', 'F:7', 'A#:min']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(94.8, 106.96), (40.82, 43.62)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(25.48, 32.8), (74.5, 80.42)]</t>
+          <t>[('0:00:00.780000', '0:01:36.780000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:01.660000', '0:01:37')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
@@ -1068,137 +1094,86 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(0.82, 145.84)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(0.36, 122.64)]</t>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:02:08.540000', '0:02:12.840000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1963636363636364</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C', 'C/7']]</t>
-        </is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj']]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(12.851927, 16.810929)]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(10.2, 17.38)]</t>
+          <t>[('0:02:28.100000', '0:02:32.600000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(5.46, 126.86)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(7.54, 122.26)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:02:40.060000', '0:02:44.460000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
